--- a/static/hojas_vida/CALIDAD_8CN23502LF.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502LF.xlsx
@@ -2517,9 +2517,17 @@
       </c>
     </row>
     <row r="34" ht="164.25" customHeight="1" s="53">
-      <c r="A34" s="17" t="n"/>
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
       <c r="B34" s="132" t="n"/>
-      <c r="C34" s="17" t="n"/>
+      <c r="C34" s="17" t="inlineStr">
+        <is>
+          <t>opcion 3</t>
+        </is>
+      </c>
       <c r="D34" s="131" t="n"/>
       <c r="E34" s="131" t="n"/>
       <c r="F34" s="131" t="n"/>
@@ -2529,7 +2537,11 @@
       <c r="J34" s="131" t="n"/>
       <c r="K34" s="131" t="n"/>
       <c r="L34" s="132" t="n"/>
-      <c r="M34" s="17" t="n"/>
+      <c r="M34" s="17" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="53">
       <c r="A35" s="17" t="n"/>

--- a/static/hojas_vida/CALIDAD_8CN23502LF.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502LF.xlsx
@@ -2544,9 +2544,17 @@
       </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="53">
-      <c r="A35" s="17" t="n"/>
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="B35" s="132" t="n"/>
-      <c r="C35" s="17" t="n"/>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">se cambio pantalla </t>
+        </is>
+      </c>
       <c r="D35" s="131" t="n"/>
       <c r="E35" s="131" t="n"/>
       <c r="F35" s="131" t="n"/>
@@ -2556,7 +2564,11 @@
       <c r="J35" s="131" t="n"/>
       <c r="K35" s="131" t="n"/>
       <c r="L35" s="132" t="n"/>
-      <c r="M35" s="17" t="n"/>
+      <c r="M35" s="17" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="166.5" customHeight="1" s="53">
       <c r="A36" s="17" t="n"/>
